--- a/MainTop/27.07.2025 имена срочно/по городам.xlsx
+++ b/MainTop/27.07.2025 имена срочно/по городам.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\27.07.2025 имена срочно\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7885D-B43E-4BED-9898-26CB0143400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48944855-5038-477B-B76F-82BD1C78640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MainTop/27.07.2025 имена срочно/по городам.xlsx
+++ b/MainTop/27.07.2025 имена срочно/по городам.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\27.07.2025 имена срочно\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48944855-5038-477B-B76F-82BD1C78640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179D02F-8784-4E73-B95A-5D951D38DB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,40 +157,40 @@
     <t>1Сибирь</t>
   </si>
   <si>
-    <t>2Юг</t>
-  </si>
-  <si>
-    <t>6Уфа</t>
-  </si>
-  <si>
     <t>2Дальний Восток</t>
   </si>
   <si>
-    <t>3Уфа</t>
-  </si>
-  <si>
-    <t>4Самара</t>
-  </si>
-  <si>
-    <t>5Санкт-Петербург и СЗО</t>
-  </si>
-  <si>
-    <t>7Урал</t>
-  </si>
-  <si>
-    <t>8Кавказ</t>
-  </si>
-  <si>
-    <t>9Казань</t>
-  </si>
-  <si>
-    <t>10Москва</t>
-  </si>
-  <si>
-    <t>11Беларусь</t>
-  </si>
-  <si>
-    <t>12Саратов</t>
+    <t>3Юг</t>
+  </si>
+  <si>
+    <t>4Уфа</t>
+  </si>
+  <si>
+    <t>5Самара</t>
+  </si>
+  <si>
+    <t>6Санкт-Петербург и СЗО</t>
+  </si>
+  <si>
+    <t>7Уфа</t>
+  </si>
+  <si>
+    <t>8Урал</t>
+  </si>
+  <si>
+    <t>9Кавказ</t>
+  </si>
+  <si>
+    <t>10Казань</t>
+  </si>
+  <si>
+    <t>11Москва</t>
+  </si>
+  <si>
+    <t>12Беларусь</t>
+  </si>
+  <si>
+    <t>13Саратов</t>
   </si>
 </sst>
 </file>
@@ -584,14 +584,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="15" width="4" customWidth="1"/>
+    <col min="2" max="14" width="4.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -602,22 +603,22 @@
         <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>51</v>
